--- a/data/Game/Calc.xlsx
+++ b/data/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,124 +26,130 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpCatsEye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActLulwyTrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainBlood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainMana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breathe_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ball_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flare_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolt_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miasma_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sword_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMoonArrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMoonSpear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMeteor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEarthquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpShutterHex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpSilence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealLight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealHeavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealCritical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealEris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealOdina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealJure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActManaAbsorb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActJureHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funnel_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonGodPet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonUndeadSister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpTeleport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpReturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEvac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.117</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.209 Patch 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpCatsEye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActLulwyTrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainBlood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainMana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breathe_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ball_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolt_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hand_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrow_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miasma_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sword_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMoonArrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMoonSpear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMeteor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEarthquake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpShutterHex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpSilence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealLight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealHeavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealCritical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealEris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealOdina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealJure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActManaAbsorb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActJureHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funnel_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonGodPet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonUndeadSister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpTeleport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpReturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEvac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 16.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.117</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.200 Patch 2</t>
@@ -240,7 +246,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -248,7 +254,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -256,7 +262,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -264,7 +270,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -272,7 +278,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -280,7 +286,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -288,7 +294,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -296,7 +302,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -304,7 +310,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -312,7 +318,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -320,7 +326,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -328,7 +334,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -336,7 +342,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -344,7 +350,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -352,7 +358,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -360,7 +366,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -368,7 +374,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -376,7 +382,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -384,7 +390,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -392,7 +398,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
@@ -400,7 +406,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -408,7 +414,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -416,7 +422,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -424,7 +430,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -432,7 +438,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -440,7 +446,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
@@ -448,7 +454,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -464,7 +470,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -472,7 +478,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
@@ -480,7 +486,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
@@ -496,7 +502,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -504,7 +510,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -512,7 +518,15 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
